--- a/resources/experiment 2/metrics/MAPE/incidence/Fallo Cardiaco (INC).xlsx
+++ b/resources/experiment 2/metrics/MAPE/incidence/Fallo Cardiaco (INC).xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3227498297016500</v>
+        <v>3227498297016498</v>
       </c>
       <c r="C2" t="n">
         <v>3227498297016500</v>
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40034842352403.98</v>
+        <v>1425813656586818</v>
       </c>
       <c r="C3" t="n">
-        <v>40034842352403.98</v>
+        <v>1432977807671950</v>
       </c>
       <c r="D3" t="n">
-        <v>40034842352403.98</v>
+        <v>2474058268104243</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>486591282226618.6</v>
+        <v>32429314004701.44</v>
       </c>
       <c r="C4" t="n">
-        <v>486530087144506.2</v>
+        <v>32525312907575.65</v>
       </c>
       <c r="D4" t="n">
-        <v>486530087144506.2</v>
+        <v>2975661411605120</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1989236915488422</v>
+        <v>508961369873299.8</v>
       </c>
       <c r="C5" t="n">
-        <v>1989236915488422</v>
+        <v>248036081681645.1</v>
       </c>
       <c r="D5" t="n">
-        <v>1989236915488422</v>
+        <v>456570472770661.2</v>
       </c>
     </row>
   </sheetData>
